--- a/biology/Zoologie/Amphiprion/Amphiprion.xlsx
+++ b/biology/Zoologie/Amphiprion/Amphiprion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphiprion est un genre de poissons, dont le nom vernaculaire est poisson clown, qui contient une trentaine d'espèces. Ces poissons vivent la plupart du temps en relation mutualiste avec des anémones de mer.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphiprion vient du grec amphi (« des deux côtés ») et prion (« scie »), en référence aux pointes dentées présentes sur le bord des pièces osseuses operculaires[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphiprion vient du grec amphi (« des deux côtés ») et prion (« scie »), en référence aux pointes dentées présentes sur le bord des pièces osseuses operculaires.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                           (21 janv. 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                           (21 janv. 2013) :
 Amphiprion akallopisos Bleeker, 1853 — Poisson-clown moufette
 Amphiprion akindynos Allen, 1972 — Poisson-clown de la grande barrière
 Amphiprion allardi Klausewitz, 1970 — Poisson-clown d'Allard
@@ -624,7 +640,9 @@
           <t>Amphiprion et Cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce australienne Amphiprion ocellaris a servi de modèle au personnage éponyme du film Le Monde de Némo. 
 </t>
